--- a/data/trans_orig/P17A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P17A-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4179F725-31E3-488B-BD78-DA74B204B306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D065A262-AAF7-4B4A-B4D5-218AA200C588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{635A9DB2-9568-49DE-98AD-9F221624E9EF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{54675ECD-9D5D-410D-A51D-865E9F6A1A60}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="611">
   <si>
     <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -593,1063 +593,1051 @@
     <t>20,8%</t>
   </si>
   <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
+    <t>17,22%</t>
   </si>
   <si>
     <t>29,73%</t>
   </si>
   <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
   </si>
   <si>
     <t>25,37%</t>
   </si>
   <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
   </si>
   <si>
     <t>79,2%</t>
   </si>
   <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
+    <t>82,78%</t>
   </si>
   <si>
     <t>70,27%</t>
   </si>
   <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
   </si>
   <si>
     <t>74,63%</t>
   </si>
   <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
   </si>
   <si>
     <t>26,64%</t>
   </si>
   <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
   </si>
   <si>
     <t>42,02%</t>
   </si>
   <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
   </si>
   <si>
     <t>34,53%</t>
   </si>
   <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
     <t>30,95%</t>
   </si>
   <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
   </si>
   <si>
     <t>69,05%</t>
   </si>
   <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
   </si>
   <si>
     <t>26,21%</t>
   </si>
   <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
   </si>
   <si>
     <t>73,79%</t>
   </si>
   <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
   </si>
   <si>
     <t>23,88%</t>
   </si>
   <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
   </si>
   <si>
     <t>76,12%</t>
   </si>
   <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
     <t>73,68%</t>
   </si>
   <si>
-    <t>67,92%</t>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
   </si>
   <si>
     <t>10,32%</t>
@@ -1658,31 +1646,28 @@
     <t>7,07%</t>
   </si>
   <si>
-    <t>15,09%</t>
+    <t>14,84%</t>
   </si>
   <si>
     <t>13,52%</t>
   </si>
   <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
+    <t>17,46%</t>
   </si>
   <si>
     <t>12,05%</t>
   </si>
   <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
   </si>
   <si>
     <t>89,68%</t>
   </si>
   <si>
-    <t>84,91%</t>
+    <t>85,16%</t>
   </si>
   <si>
     <t>92,93%</t>
@@ -1691,199 +1676,202 @@
     <t>86,48%</t>
   </si>
   <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
+    <t>82,54%</t>
   </si>
   <si>
     <t>87,95%</t>
   </si>
   <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
   </si>
   <si>
     <t>19,73%</t>
   </si>
   <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
   </si>
   <si>
     <t>22,69%</t>
   </si>
   <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
   </si>
   <si>
     <t>21,21%</t>
   </si>
   <si>
-    <t>24,22%</t>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
   </si>
   <si>
     <t>80,27%</t>
   </si>
   <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
   </si>
   <si>
     <t>77,31%</t>
   </si>
   <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
   </si>
   <si>
     <t>78,79%</t>
   </si>
   <si>
-    <t>75,78%</t>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
   </si>
   <si>
     <t>23,06%</t>
   </si>
   <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
   </si>
   <si>
     <t>24,89%</t>
   </si>
   <si>
-    <t>28,17%</t>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
   </si>
   <si>
     <t>76,94%</t>
   </si>
   <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
   </si>
   <si>
     <t>75,11%</t>
   </si>
   <si>
-    <t>71,83%</t>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
   </si>
   <si>
     <t>19,36%</t>
   </si>
   <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
   </si>
   <si>
     <t>27,39%</t>
   </si>
   <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
   </si>
   <si>
     <t>80,64%</t>
   </si>
   <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
   </si>
   <si>
     <t>72,61%</t>
   </si>
   <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
   </si>
   <si>
     <t>19,78%</t>
   </si>
   <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
   </si>
   <si>
     <t>24,25%</t>
   </si>
   <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
     <t>22,15%</t>
   </si>
   <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
   </si>
   <si>
     <t>80,22%</t>
   </si>
   <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
   </si>
   <si>
     <t>75,75%</t>
   </si>
   <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
     <t>77,85%</t>
   </si>
   <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
   </si>
 </sst>
 </file>
@@ -2295,7 +2283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84A66BC-0788-4434-AD39-EECC7C047576}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A97014-CE91-48D6-9C4E-2A72BAC1CEE1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3826,7 +3814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD253CE-FEF7-45E7-BF5C-6DAE55C1D78D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{269E98F6-A7B9-434F-A14E-60906C27C8EE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4093,7 +4081,7 @@
         <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>96</v>
       </c>
       <c r="H7" s="7">
         <v>143</v>
@@ -4102,13 +4090,13 @@
         <v>155421</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>233</v>
@@ -4117,13 +4105,13 @@
         <v>259143</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,13 +4126,13 @@
         <v>394868</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>336</v>
@@ -4153,13 +4141,13 @@
         <v>367335</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>712</v>
@@ -4168,13 +4156,13 @@
         <v>762202</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4242,13 +4230,13 @@
         <v>86327</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>135</v>
@@ -4257,13 +4245,13 @@
         <v>143305</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>218</v>
@@ -4272,13 +4260,13 @@
         <v>229633</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,13 +4281,13 @@
         <v>237719</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>182</v>
@@ -4308,13 +4296,13 @@
         <v>197715</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>418</v>
@@ -4323,13 +4311,13 @@
         <v>435433</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4394,16 +4382,16 @@
         <v>124</v>
       </c>
       <c r="D13" s="7">
-        <v>132640</v>
+        <v>132641</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>195</v>
@@ -4412,13 +4400,13 @@
         <v>209526</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>319</v>
@@ -4427,13 +4415,13 @@
         <v>342167</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4448,13 +4436,13 @@
         <v>535095</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>426</v>
@@ -4463,13 +4451,13 @@
         <v>459609</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>927</v>
@@ -4478,13 +4466,13 @@
         <v>994703</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4496,7 +4484,7 @@
         <v>625</v>
       </c>
       <c r="D15" s="7">
-        <v>667735</v>
+        <v>667736</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4552,13 +4540,13 @@
         <v>51992</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>89</v>
@@ -4567,13 +4555,13 @@
         <v>91040</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>137</v>
@@ -4582,13 +4570,13 @@
         <v>143032</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,13 +4591,13 @@
         <v>159611</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>123</v>
@@ -4618,13 +4606,13 @@
         <v>128551</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>270</v>
@@ -4633,13 +4621,13 @@
         <v>288162</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,13 +4695,13 @@
         <v>80835</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H19" s="7">
         <v>105</v>
@@ -4722,13 +4710,13 @@
         <v>110011</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>182</v>
@@ -4737,13 +4725,13 @@
         <v>190847</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4758,13 +4746,13 @@
         <v>193146</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H20" s="7">
         <v>163</v>
@@ -4773,13 +4761,13 @@
         <v>169069</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>347</v>
@@ -4788,13 +4776,13 @@
         <v>362214</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4865,10 +4853,10 @@
         <v>19</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H22" s="7">
         <v>203</v>
@@ -4877,13 +4865,13 @@
         <v>223159</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M22" s="7">
         <v>358</v>
@@ -4892,13 +4880,13 @@
         <v>391204</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4916,10 +4904,10 @@
         <v>28</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
         <v>433</v>
@@ -4928,13 +4916,13 @@
         <v>470694</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M23" s="7">
         <v>895</v>
@@ -4943,13 +4931,13 @@
         <v>964540</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,13 +5005,13 @@
         <v>156580</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H25" s="7">
         <v>206</v>
@@ -5035,10 +5023,10 @@
         <v>129</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M25" s="7">
         <v>346</v>
@@ -5047,13 +5035,13 @@
         <v>379687</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,13 +5056,13 @@
         <v>618438</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H26" s="7">
         <v>549</v>
@@ -5086,10 +5074,10 @@
         <v>136</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M26" s="7">
         <v>1123</v>
@@ -5098,13 +5086,13 @@
         <v>1217133</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,13 +5160,13 @@
         <v>780140</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H28" s="7">
         <v>1076</v>
@@ -5187,13 +5175,13 @@
         <v>1155571</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M28" s="7">
         <v>1793</v>
@@ -5205,10 +5193,10 @@
         <v>116</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5211,13 @@
         <v>2632723</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="H29" s="7">
         <v>2212</v>
@@ -5238,13 +5226,13 @@
         <v>2391667</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="M29" s="7">
         <v>4692</v>
@@ -5256,10 +5244,10 @@
         <v>124</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5339,7 +5327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7B8A97-5601-42A5-A9DB-A1E6869C91D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43C3F3B-A359-4C82-85A9-19D29BDFA2D3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5356,7 +5344,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5463,13 +5451,13 @@
         <v>68745</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="H4" s="7">
         <v>92</v>
@@ -5478,13 +5466,13 @@
         <v>93700</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="M4" s="7">
         <v>154</v>
@@ -5493,13 +5481,13 @@
         <v>162445</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5514,13 +5502,13 @@
         <v>225016</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="H5" s="7">
         <v>185</v>
@@ -5529,13 +5517,13 @@
         <v>195003</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="M5" s="7">
         <v>389</v>
@@ -5544,13 +5532,13 @@
         <v>420019</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5618,13 +5606,13 @@
         <v>110667</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H7" s="7">
         <v>164</v>
@@ -5633,13 +5621,13 @@
         <v>181763</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="M7" s="7">
         <v>268</v>
@@ -5648,13 +5636,13 @@
         <v>292430</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>346</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>347</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5669,13 +5657,13 @@
         <v>391908</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="H8" s="7">
         <v>320</v>
@@ -5684,13 +5672,13 @@
         <v>341321</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="M8" s="7">
         <v>691</v>
@@ -5699,13 +5687,13 @@
         <v>733229</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5773,13 +5761,13 @@
         <v>74367</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>356</v>
+        <v>289</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H10" s="7">
         <v>103</v>
@@ -5788,13 +5776,13 @@
         <v>104253</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="M10" s="7">
         <v>182</v>
@@ -5803,13 +5791,13 @@
         <v>178619</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,13 +5812,13 @@
         <v>244198</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>365</v>
+        <v>296</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H11" s="7">
         <v>229</v>
@@ -5839,13 +5827,13 @@
         <v>232056</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="M11" s="7">
         <v>485</v>
@@ -5854,13 +5842,13 @@
         <v>476255</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,13 +5916,13 @@
         <v>89490</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H13" s="7">
         <v>124</v>
@@ -5943,13 +5931,13 @@
         <v>136330</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="M13" s="7">
         <v>212</v>
@@ -5958,13 +5946,13 @@
         <v>225820</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5979,13 +5967,13 @@
         <v>280474</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H14" s="7">
         <v>234</v>
@@ -5994,13 +5982,13 @@
         <v>250953</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M14" s="7">
         <v>500</v>
@@ -6009,13 +5997,13 @@
         <v>531427</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,13 +6071,13 @@
         <v>30232</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="H16" s="7">
         <v>52</v>
@@ -6098,13 +6086,13 @@
         <v>51750</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="M16" s="7">
         <v>83</v>
@@ -6113,13 +6101,13 @@
         <v>81982</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,13 +6122,13 @@
         <v>180989</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H17" s="7">
         <v>171</v>
@@ -6149,13 +6137,13 @@
         <v>166837</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="M17" s="7">
         <v>352</v>
@@ -6164,13 +6152,13 @@
         <v>347826</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>407</v>
+        <v>363</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,13 +6226,13 @@
         <v>107806</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="H19" s="7">
         <v>124</v>
@@ -6253,13 +6241,13 @@
         <v>130377</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="M19" s="7">
         <v>229</v>
@@ -6268,13 +6256,13 @@
         <v>238183</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6289,13 +6277,13 @@
         <v>155317</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="H20" s="7">
         <v>139</v>
@@ -6304,13 +6292,13 @@
         <v>142738</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="M20" s="7">
         <v>293</v>
@@ -6319,13 +6307,13 @@
         <v>298055</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,13 +6381,13 @@
         <v>150028</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="H22" s="7">
         <v>169</v>
@@ -6408,13 +6396,13 @@
         <v>186400</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>326</v>
+        <v>425</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>343</v>
+        <v>427</v>
       </c>
       <c r="M22" s="7">
         <v>302</v>
@@ -6423,13 +6411,13 @@
         <v>336428</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,13 +6432,13 @@
         <v>506530</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H23" s="7">
         <v>477</v>
@@ -6459,13 +6447,13 @@
         <v>504894</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>336</v>
+        <v>434</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>352</v>
+        <v>435</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="M23" s="7">
         <v>924</v>
@@ -6474,13 +6462,13 @@
         <v>1011424</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6548,13 +6536,13 @@
         <v>224268</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="H25" s="7">
         <v>249</v>
@@ -6563,13 +6551,13 @@
         <v>279748</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="M25" s="7">
         <v>463</v>
@@ -6578,13 +6566,13 @@
         <v>504016</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6599,10 +6587,10 @@
         <v>554315</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>451</v>
@@ -6721,10 +6709,10 @@
         <v>461</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>134</v>
+        <v>462</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>462</v>
+        <v>259</v>
       </c>
       <c r="M28" s="7">
         <v>1893</v>
@@ -6772,10 +6760,10 @@
         <v>469</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M29" s="7">
         <v>4676</v>
@@ -6870,7 +6858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC77680F-21D9-4502-89D3-BCB3BE64FE05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B25B42F-6B59-4B0C-9ECA-B54B56FB3138}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6994,7 +6982,7 @@
         <v>59481</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>475</v>
@@ -7009,13 +6997,13 @@
         <v>70883</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>279</v>
+        <v>477</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M4" s="7">
         <v>208</v>
@@ -7024,10 +7012,10 @@
         <v>130364</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>480</v>
+        <v>164</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>481</v>
@@ -7045,7 +7033,7 @@
         <v>200817</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>482</v>
@@ -7060,13 +7048,13 @@
         <v>199553</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>288</v>
+        <v>484</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M5" s="7">
         <v>659</v>
@@ -7075,13 +7063,13 @@
         <v>400369</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>488</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7170,7 +7158,7 @@
         <v>493</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>494</v>
+        <v>293</v>
       </c>
       <c r="M7" s="7">
         <v>205</v>
@@ -7179,13 +7167,13 @@
         <v>189120</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>496</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>497</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7200,13 +7188,13 @@
         <v>433351</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>500</v>
       </c>
       <c r="H8" s="7">
         <v>582</v>
@@ -7215,13 +7203,13 @@
         <v>450504</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>502</v>
+        <v>302</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="M8" s="7">
         <v>893</v>
@@ -7230,13 +7218,13 @@
         <v>883855</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>505</v>
+        <v>26</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7304,13 +7292,13 @@
         <v>65059</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="H10" s="7">
         <v>120</v>
@@ -7319,13 +7307,13 @@
         <v>80913</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="M10" s="7">
         <v>196</v>
@@ -7334,13 +7322,13 @@
         <v>145972</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>511</v>
+        <v>339</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>514</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7355,13 +7343,13 @@
         <v>257181</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="H11" s="7">
         <v>416</v>
@@ -7370,13 +7358,13 @@
         <v>292371</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="M11" s="7">
         <v>700</v>
@@ -7385,13 +7373,13 @@
         <v>549552</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>522</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>520</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7459,13 +7447,13 @@
         <v>73675</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="H13" s="7">
         <v>166</v>
@@ -7474,13 +7462,13 @@
         <v>123823</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="M13" s="7">
         <v>241</v>
@@ -7489,13 +7477,13 @@
         <v>197499</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>305</v>
+        <v>523</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7510,13 +7498,13 @@
         <v>248565</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="H14" s="7">
         <v>432</v>
@@ -7525,13 +7513,13 @@
         <v>304306</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="M14" s="7">
         <v>649</v>
@@ -7540,13 +7528,13 @@
         <v>552870</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>313</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7614,13 +7602,13 @@
         <v>20305</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H16" s="7">
         <v>65</v>
@@ -7629,13 +7617,13 @@
         <v>31224</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>541</v>
+        <v>389</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="M16" s="7">
         <v>92</v>
@@ -7644,13 +7632,13 @@
         <v>51529</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7665,13 +7653,13 @@
         <v>176443</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="H17" s="7">
         <v>425</v>
@@ -7680,13 +7668,13 @@
         <v>199738</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>551</v>
+        <v>398</v>
       </c>
       <c r="M17" s="7">
         <v>677</v>
@@ -7695,13 +7683,13 @@
         <v>376181</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7769,13 +7757,13 @@
         <v>54694</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="H19" s="7">
         <v>112</v>
@@ -7784,13 +7772,13 @@
         <v>62551</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="M19" s="7">
         <v>191</v>
@@ -7799,13 +7787,13 @@
         <v>117245</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>18</v>
+        <v>556</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7820,13 +7808,13 @@
         <v>222529</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="H20" s="7">
         <v>348</v>
@@ -7835,13 +7823,13 @@
         <v>213071</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="M20" s="7">
         <v>640</v>
@@ -7850,13 +7838,13 @@
         <v>435600</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>29</v>
+        <v>566</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7924,13 +7912,13 @@
         <v>144770</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="H22" s="7">
         <v>313</v>
@@ -7939,13 +7927,13 @@
         <v>211388</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>575</v>
+        <v>201</v>
       </c>
       <c r="M22" s="7">
         <v>455</v>
@@ -7954,13 +7942,13 @@
         <v>356158</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>357</v>
+        <v>572</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7975,13 +7963,13 @@
         <v>482984</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="H23" s="7">
         <v>646</v>
@@ -7990,13 +7978,13 @@
         <v>591670</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>581</v>
+        <v>209</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="M23" s="7">
         <v>1103</v>
@@ -8005,13 +7993,13 @@
         <v>1074654</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>367</v>
+        <v>580</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8079,13 +8067,13 @@
         <v>166280</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="H25" s="7">
         <v>304</v>
@@ -8094,13 +8082,13 @@
         <v>237810</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>256</v>
+        <v>585</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="M25" s="7">
         <v>475</v>
@@ -8109,13 +8097,13 @@
         <v>404090</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>55</v>
+        <v>588</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8130,13 +8118,13 @@
         <v>692443</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>591</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>593</v>
       </c>
       <c r="H26" s="7">
         <v>757</v>
@@ -8145,13 +8133,13 @@
         <v>630465</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>594</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M26" s="7">
         <v>1347</v>
@@ -8160,10 +8148,10 @@
         <v>1322908</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>65</v>
+        <v>595</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>596</v>
@@ -8252,10 +8240,10 @@
         <v>600</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>601</v>
+        <v>293</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>602</v>
+        <v>345</v>
       </c>
       <c r="M28" s="7">
         <v>2063</v>
@@ -8264,13 +8252,13 @@
         <v>1591977</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>603</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8285,13 +8273,13 @@
         <v>2714311</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>606</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>607</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>608</v>
       </c>
       <c r="H29" s="7">
         <v>4006</v>
@@ -8300,13 +8288,13 @@
         <v>2881677</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>610</v>
+        <v>353</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>611</v>
+        <v>302</v>
       </c>
       <c r="M29" s="7">
         <v>6668</v>
@@ -8315,13 +8303,13 @@
         <v>5595989</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P17A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P17A-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D065A262-AAF7-4B4A-B4D5-218AA200C588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{380E1989-B83F-406D-A809-9466FE5BB58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{54675ECD-9D5D-410D-A51D-865E9F6A1A60}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5CC171A9-7D5F-4301-8AC1-3794FEE3D91E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="615">
   <si>
     <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -77,1798 +77,1810 @@
     <t>18,1%</t>
   </si>
   <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
   </si>
   <si>
     <t>25,38%</t>
   </si>
   <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
     <t>20,39%</t>
   </si>
   <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2012 (Tasa respuesta: 99,66%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
   </si>
   <si>
     <t>25,39%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
   </si>
   <si>
     <t>74,61%</t>
   </si>
   <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
   </si>
   <si>
     <t>18,35%</t>
   </si>
   <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
   </si>
   <si>
     <t>81,65%</t>
   </si>
   <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
   </si>
   <si>
     <t>21,58%</t>
   </si>
   <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
   </si>
   <si>
     <t>78,42%</t>
   </si>
   <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2012 (Tasa respuesta: 99,66%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
   </si>
   <si>
     <t>31,62%</t>
   </si>
   <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
   </si>
   <si>
     <t>68,38%</t>
   </si>
   <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
   </si>
   <si>
     <t>25,84%</t>
   </si>
   <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
   </si>
   <si>
     <t>74,16%</t>
   </si>
   <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
     <t>77,85%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
   </si>
   <si>
     <t>79,26%</t>
@@ -2283,7 +2295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A97014-CE91-48D6-9C4E-2A72BAC1CEE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C839A1-76D1-4829-A98D-672CF5FEF47B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3370,10 +3382,10 @@
         <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3388,13 +3400,13 @@
         <v>469103</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>410</v>
@@ -3403,13 +3415,13 @@
         <v>423155</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>862</v>
@@ -3418,13 +3430,13 @@
         <v>892258</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3480,7 +3492,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3492,13 +3504,13 @@
         <v>180047</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>236</v>
@@ -3507,13 +3519,13 @@
         <v>251742</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>415</v>
@@ -3522,13 +3534,13 @@
         <v>431789</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3543,13 +3555,13 @@
         <v>563748</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>509</v>
@@ -3558,13 +3570,13 @@
         <v>531769</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1066</v>
@@ -3573,13 +3585,13 @@
         <v>1095517</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,13 +3659,13 @@
         <v>659302</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>1022</v>
@@ -3662,13 +3674,13 @@
         <v>1048370</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1683</v>
@@ -3677,13 +3689,13 @@
         <v>1707672</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,13 +3710,13 @@
         <v>2614572</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>2273</v>
@@ -3713,13 +3725,13 @@
         <v>2328815</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>4823</v>
@@ -3728,13 +3740,13 @@
         <v>4943387</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3790,7 +3802,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3814,7 +3826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{269E98F6-A7B9-434F-A14E-60906C27C8EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70E3A39-DE69-4007-8880-8F2A01BD5C1C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3831,7 +3843,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3936,39 +3948,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,39 +3993,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,39 +4038,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4075,13 +4087,13 @@
         <v>103721</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>96</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>143</v>
@@ -4090,13 +4102,13 @@
         <v>155421</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>233</v>
@@ -4105,13 +4117,13 @@
         <v>259143</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4126,13 +4138,13 @@
         <v>394868</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>336</v>
@@ -4141,13 +4153,13 @@
         <v>367335</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>712</v>
@@ -4156,13 +4168,13 @@
         <v>762202</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4230,13 +4242,13 @@
         <v>86327</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>135</v>
@@ -4245,13 +4257,13 @@
         <v>143305</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>218</v>
@@ -4260,13 +4272,13 @@
         <v>229633</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4281,13 +4293,13 @@
         <v>237719</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>182</v>
@@ -4296,13 +4308,13 @@
         <v>197715</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>418</v>
@@ -4311,13 +4323,13 @@
         <v>435433</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4382,16 +4394,16 @@
         <v>124</v>
       </c>
       <c r="D13" s="7">
-        <v>132641</v>
+        <v>132640</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>195</v>
@@ -4400,13 +4412,13 @@
         <v>209526</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>319</v>
@@ -4415,13 +4427,13 @@
         <v>342167</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4436,13 +4448,13 @@
         <v>535095</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>426</v>
@@ -4451,13 +4463,13 @@
         <v>459609</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>927</v>
@@ -4466,13 +4478,13 @@
         <v>994703</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4484,7 +4496,7 @@
         <v>625</v>
       </c>
       <c r="D15" s="7">
-        <v>667736</v>
+        <v>667735</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4540,13 +4552,13 @@
         <v>51992</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H16" s="7">
         <v>89</v>
@@ -4555,13 +4567,13 @@
         <v>91040</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="M16" s="7">
         <v>137</v>
@@ -4570,13 +4582,13 @@
         <v>143032</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4591,13 +4603,13 @@
         <v>159611</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H17" s="7">
         <v>123</v>
@@ -4606,13 +4618,13 @@
         <v>128551</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>270</v>
@@ -4621,13 +4633,13 @@
         <v>288162</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4695,13 +4707,13 @@
         <v>80835</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H19" s="7">
         <v>105</v>
@@ -4710,13 +4722,13 @@
         <v>110011</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M19" s="7">
         <v>182</v>
@@ -4725,13 +4737,13 @@
         <v>190847</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4746,13 +4758,13 @@
         <v>193146</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H20" s="7">
         <v>163</v>
@@ -4761,13 +4773,13 @@
         <v>169069</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M20" s="7">
         <v>347</v>
@@ -4776,13 +4788,13 @@
         <v>362214</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,13 +4862,13 @@
         <v>168044</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>19</v>
+        <v>275</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="H22" s="7">
         <v>203</v>
@@ -4865,13 +4877,13 @@
         <v>223159</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="M22" s="7">
         <v>358</v>
@@ -4880,13 +4892,13 @@
         <v>391204</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,13 +4913,13 @@
         <v>493847</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>28</v>
+        <v>284</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="H23" s="7">
         <v>433</v>
@@ -4916,13 +4928,13 @@
         <v>470694</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="M23" s="7">
         <v>895</v>
@@ -4931,13 +4943,13 @@
         <v>964540</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4993,7 +5005,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5005,13 +5017,13 @@
         <v>156580</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="H25" s="7">
         <v>206</v>
@@ -5020,13 +5032,13 @@
         <v>223107</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>129</v>
+        <v>296</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="M25" s="7">
         <v>346</v>
@@ -5035,13 +5047,13 @@
         <v>379687</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>294</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5056,13 +5068,13 @@
         <v>618438</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="H26" s="7">
         <v>549</v>
@@ -5071,13 +5083,13 @@
         <v>598695</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>136</v>
+        <v>304</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="M26" s="7">
         <v>1123</v>
@@ -5086,13 +5098,13 @@
         <v>1217133</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>301</v>
+        <v>199</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,13 +5172,13 @@
         <v>780140</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="H28" s="7">
         <v>1076</v>
@@ -5175,13 +5187,13 @@
         <v>1155571</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>307</v>
+        <v>154</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="M28" s="7">
         <v>1793</v>
@@ -5190,13 +5202,13 @@
         <v>1935711</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>116</v>
+        <v>314</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,13 +5223,13 @@
         <v>2632723</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="H29" s="7">
         <v>2212</v>
@@ -5226,28 +5238,28 @@
         <v>2391667</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>316</v>
+        <v>162</v>
       </c>
       <c r="M29" s="7">
         <v>4692</v>
       </c>
       <c r="N29" s="7">
-        <v>5024389</v>
+        <v>5024390</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>124</v>
+        <v>322</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,7 +5301,7 @@
         <v>6485</v>
       </c>
       <c r="N30" s="7">
-        <v>6960100</v>
+        <v>6960101</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5303,7 +5315,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5327,7 +5339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43C3F3B-A359-4C82-85A9-19D29BDFA2D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F078DC-AFB7-4AA7-8889-7627B5D3907D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5344,7 +5356,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5451,13 +5463,13 @@
         <v>68745</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="H4" s="7">
         <v>92</v>
@@ -5466,13 +5478,13 @@
         <v>93700</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="M4" s="7">
         <v>154</v>
@@ -5481,13 +5493,13 @@
         <v>162445</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5502,13 +5514,13 @@
         <v>225016</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="H5" s="7">
         <v>185</v>
@@ -5517,13 +5529,13 @@
         <v>195003</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M5" s="7">
         <v>389</v>
@@ -5532,13 +5544,13 @@
         <v>420019</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>335</v>
+        <v>235</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5606,13 +5618,13 @@
         <v>110667</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="H7" s="7">
         <v>164</v>
@@ -5621,13 +5633,13 @@
         <v>181763</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="M7" s="7">
         <v>268</v>
@@ -5636,13 +5648,13 @@
         <v>292430</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>134</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5657,13 +5669,13 @@
         <v>391908</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="H8" s="7">
         <v>320</v>
@@ -5672,13 +5684,13 @@
         <v>341321</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="M8" s="7">
         <v>691</v>
@@ -5687,13 +5699,13 @@
         <v>733229</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>142</v>
+        <v>358</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5761,13 +5773,13 @@
         <v>74367</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>289</v>
+        <v>360</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="H10" s="7">
         <v>103</v>
@@ -5776,13 +5788,13 @@
         <v>104253</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="M10" s="7">
         <v>182</v>
@@ -5791,13 +5803,13 @@
         <v>178619</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,13 +5824,13 @@
         <v>244198</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>296</v>
+        <v>369</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="H11" s="7">
         <v>229</v>
@@ -5827,13 +5839,13 @@
         <v>232056</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="M11" s="7">
         <v>485</v>
@@ -5842,13 +5854,13 @@
         <v>476255</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5916,13 +5928,13 @@
         <v>89490</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="H13" s="7">
         <v>124</v>
@@ -5931,13 +5943,13 @@
         <v>136330</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="M13" s="7">
         <v>212</v>
@@ -5946,13 +5958,13 @@
         <v>225820</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5967,13 +5979,13 @@
         <v>280474</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H14" s="7">
         <v>234</v>
@@ -5982,13 +5994,13 @@
         <v>250953</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="M14" s="7">
         <v>500</v>
@@ -5997,13 +6009,13 @@
         <v>531427</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6071,13 +6083,13 @@
         <v>30232</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="H16" s="7">
         <v>52</v>
@@ -6086,13 +6098,13 @@
         <v>51750</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="M16" s="7">
         <v>83</v>
@@ -6101,13 +6113,13 @@
         <v>81982</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6122,13 +6134,13 @@
         <v>180989</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="H17" s="7">
         <v>171</v>
@@ -6137,13 +6149,13 @@
         <v>166837</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="M17" s="7">
         <v>352</v>
@@ -6152,13 +6164,13 @@
         <v>347826</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>363</v>
+        <v>409</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,13 +6238,13 @@
         <v>107806</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="H19" s="7">
         <v>124</v>
@@ -6241,13 +6253,13 @@
         <v>130377</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="M19" s="7">
         <v>229</v>
@@ -6256,13 +6268,13 @@
         <v>238183</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,13 +6289,13 @@
         <v>155317</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>415</v>
+        <v>388</v>
       </c>
       <c r="H20" s="7">
         <v>139</v>
@@ -6292,13 +6304,13 @@
         <v>142738</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="M20" s="7">
         <v>293</v>
@@ -6307,13 +6319,13 @@
         <v>298055</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6381,13 +6393,13 @@
         <v>150028</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="H22" s="7">
         <v>169</v>
@@ -6396,13 +6408,13 @@
         <v>186400</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="M22" s="7">
         <v>302</v>
@@ -6411,13 +6423,13 @@
         <v>336428</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6432,13 +6444,13 @@
         <v>506530</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="H23" s="7">
         <v>477</v>
@@ -6447,13 +6459,13 @@
         <v>504894</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="M23" s="7">
         <v>924</v>
@@ -6462,13 +6474,13 @@
         <v>1011424</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6524,7 +6536,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6536,13 +6548,13 @@
         <v>224268</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>440</v>
+        <v>91</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="H25" s="7">
         <v>249</v>
@@ -6551,13 +6563,13 @@
         <v>279748</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="M25" s="7">
         <v>463</v>
@@ -6566,13 +6578,13 @@
         <v>504016</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>446</v>
+        <v>205</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,13 +6599,13 @@
         <v>554315</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>449</v>
+        <v>99</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="H26" s="7">
         <v>506</v>
@@ -6602,13 +6614,13 @@
         <v>546419</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="M26" s="7">
         <v>1042</v>
@@ -6617,13 +6629,13 @@
         <v>1100734</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>455</v>
+        <v>213</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6691,13 +6703,13 @@
         <v>855602</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>459</v>
+        <v>299</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H28" s="7">
         <v>1077</v>
@@ -6706,13 +6718,13 @@
         <v>1164320</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>259</v>
+        <v>464</v>
       </c>
       <c r="M28" s="7">
         <v>1893</v>
@@ -6721,13 +6733,13 @@
         <v>2019921</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>463</v>
+        <v>379</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>465</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6748,7 +6760,7 @@
         <v>467</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>468</v>
+        <v>307</v>
       </c>
       <c r="H29" s="7">
         <v>2261</v>
@@ -6757,10 +6769,10 @@
         <v>2380222</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>470</v>
@@ -6772,13 +6784,13 @@
         <v>4918971</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6834,7 +6846,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6858,7 +6870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B25B42F-6B59-4B0C-9ECA-B54B56FB3138}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E126607-227C-4AFF-919A-BF2A1B0E561F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6875,7 +6887,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6982,13 +6994,13 @@
         <v>59481</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H4" s="7">
         <v>136</v>
@@ -6997,13 +7009,13 @@
         <v>70883</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="M4" s="7">
         <v>208</v>
@@ -7012,13 +7024,13 @@
         <v>130364</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7033,13 +7045,13 @@
         <v>200817</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>483</v>
       </c>
       <c r="H5" s="7">
         <v>400</v>
@@ -7048,13 +7060,13 @@
         <v>199553</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="M5" s="7">
         <v>659</v>
@@ -7063,13 +7075,13 @@
         <v>400369</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7158,7 +7170,7 @@
         <v>493</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>293</v>
+        <v>494</v>
       </c>
       <c r="M7" s="7">
         <v>205</v>
@@ -7167,13 +7179,13 @@
         <v>189120</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7188,13 +7200,13 @@
         <v>433351</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H8" s="7">
         <v>582</v>
@@ -7203,13 +7215,13 @@
         <v>450504</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>302</v>
+        <v>501</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M8" s="7">
         <v>893</v>
@@ -7218,13 +7230,13 @@
         <v>883855</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7292,13 +7304,13 @@
         <v>65059</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="H10" s="7">
         <v>120</v>
@@ -7307,13 +7319,13 @@
         <v>80913</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="M10" s="7">
         <v>196</v>
@@ -7322,10 +7334,10 @@
         <v>145972</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>339</v>
+        <v>512</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>57</v>
@@ -7343,13 +7355,13 @@
         <v>257181</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="H11" s="7">
         <v>416</v>
@@ -7358,13 +7370,13 @@
         <v>292371</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="M11" s="7">
         <v>700</v>
@@ -7373,13 +7385,13 @@
         <v>549552</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>348</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7447,13 +7459,13 @@
         <v>73675</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="H13" s="7">
         <v>166</v>
@@ -7462,13 +7474,13 @@
         <v>123823</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="M13" s="7">
         <v>241</v>
@@ -7477,13 +7489,13 @@
         <v>197499</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7498,13 +7510,13 @@
         <v>248565</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="H14" s="7">
         <v>432</v>
@@ -7513,13 +7525,13 @@
         <v>304306</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="M14" s="7">
         <v>649</v>
@@ -7528,13 +7540,13 @@
         <v>552870</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7602,13 +7614,13 @@
         <v>20305</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="H16" s="7">
         <v>65</v>
@@ -7617,13 +7629,13 @@
         <v>31224</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>389</v>
+        <v>541</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="M16" s="7">
         <v>92</v>
@@ -7632,13 +7644,13 @@
         <v>51529</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7653,13 +7665,13 @@
         <v>176443</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="H17" s="7">
         <v>425</v>
@@ -7668,13 +7680,13 @@
         <v>199738</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>398</v>
+        <v>551</v>
       </c>
       <c r="M17" s="7">
         <v>677</v>
@@ -7683,13 +7695,13 @@
         <v>376181</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7757,13 +7769,13 @@
         <v>54694</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="H19" s="7">
         <v>112</v>
@@ -7772,13 +7784,13 @@
         <v>62551</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="M19" s="7">
         <v>191</v>
@@ -7787,13 +7799,13 @@
         <v>117245</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7808,13 +7820,13 @@
         <v>222529</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="H20" s="7">
         <v>348</v>
@@ -7823,13 +7835,13 @@
         <v>213071</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="M20" s="7">
         <v>640</v>
@@ -7838,13 +7850,13 @@
         <v>435600</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7912,13 +7924,13 @@
         <v>144770</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="H22" s="7">
         <v>313</v>
@@ -7927,13 +7939,13 @@
         <v>211388</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>201</v>
+        <v>577</v>
       </c>
       <c r="M22" s="7">
         <v>455</v>
@@ -7942,13 +7954,13 @@
         <v>356158</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7963,13 +7975,13 @@
         <v>482984</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="H23" s="7">
         <v>646</v>
@@ -7978,13 +7990,13 @@
         <v>591670</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>209</v>
+        <v>584</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="M23" s="7">
         <v>1103</v>
@@ -7993,13 +8005,13 @@
         <v>1074654</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8055,7 +8067,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8067,13 +8079,13 @@
         <v>166280</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="H25" s="7">
         <v>304</v>
@@ -8082,13 +8094,13 @@
         <v>237810</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>584</v>
+        <v>436</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="M25" s="7">
         <v>475</v>
@@ -8097,13 +8109,13 @@
         <v>404090</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8118,13 +8130,13 @@
         <v>692443</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="H26" s="7">
         <v>757</v>
@@ -8133,13 +8145,13 @@
         <v>630465</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>592</v>
+        <v>444</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="M26" s="7">
         <v>1347</v>
@@ -8148,13 +8160,13 @@
         <v>1322908</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8222,13 +8234,13 @@
         <v>669323</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>599</v>
+        <v>310</v>
       </c>
       <c r="H28" s="7">
         <v>1351</v>
@@ -8237,13 +8249,13 @@
         <v>922655</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>293</v>
+        <v>494</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>345</v>
+        <v>606</v>
       </c>
       <c r="M28" s="7">
         <v>2063</v>
@@ -8252,13 +8264,13 @@
         <v>1591977</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>603</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8273,13 +8285,13 @@
         <v>2714311</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>605</v>
+        <v>319</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="H29" s="7">
         <v>4006</v>
@@ -8288,13 +8300,13 @@
         <v>2881677</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>353</v>
+        <v>612</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>302</v>
+        <v>501</v>
       </c>
       <c r="M29" s="7">
         <v>6668</v>
@@ -8303,13 +8315,13 @@
         <v>5595989</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>609</v>
+        <v>231</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8365,7 +8377,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P17A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P17A-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{380E1989-B83F-406D-A809-9466FE5BB58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1D99CE5-C6AD-4C0D-94E9-4EDDE0D9AB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5CC171A9-7D5F-4301-8AC1-3794FEE3D91E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{407A9288-28B8-4486-8EDE-5FAB9776EED4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,34 +71,34 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>18,1%</t>
   </si>
   <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
   </si>
   <si>
     <t>25,38%</t>
   </si>
   <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
   </si>
   <si>
     <t>21,65%</t>
   </si>
   <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>81,9%</t>
   </si>
   <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
   </si>
   <si>
     <t>74,62%</t>
   </si>
   <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
   </si>
   <si>
     <t>78,35%</t>
   </si>
   <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>18,06%</t>
   </si>
   <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
   </si>
   <si>
     <t>26,24%</t>
   </si>
   <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
   </si>
   <si>
     <t>22,2%</t>
   </si>
   <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
   </si>
   <si>
     <t>81,94%</t>
   </si>
   <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
   </si>
   <si>
     <t>73,76%</t>
   </si>
   <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
   </si>
   <si>
     <t>77,8%</t>
   </si>
   <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,55 +197,55 @@
     <t>17,11%</t>
   </si>
   <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
   </si>
   <si>
     <t>30,15%</t>
   </si>
   <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
   </si>
   <si>
     <t>23,77%</t>
   </si>
   <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
   </si>
   <si>
     <t>82,89%</t>
   </si>
   <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
   </si>
   <si>
     <t>69,85%</t>
   </si>
   <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
   </si>
   <si>
     <t>76,23%</t>
   </si>
   <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -254,1636 +254,1636 @@
     <t>14,61%</t>
   </si>
   <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
   </si>
   <si>
     <t>32,28%</t>
   </si>
   <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
   </si>
   <si>
     <t>23,6%</t>
   </si>
   <si>
-    <t>20,39%</t>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2012 (Tasa respuesta: 99,66%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
   </si>
   <si>
     <t>26,73%</t>
   </si>
   <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
   </si>
   <si>
     <t>73,27%</t>
   </si>
   <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2012 (Tasa respuesta: 99,66%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
   </si>
   <si>
     <t>38,27%</t>
   </si>
   <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
   </si>
   <si>
     <t>61,73%</t>
   </si>
   <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
   </si>
   <si>
     <t>24,22%</t>
   </si>
   <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
   </si>
   <si>
     <t>75,78%</t>
   </si>
   <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
   </si>
   <si>
     <t>27,39%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
   </si>
   <si>
     <t>72,61%</t>
   </si>
   <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
   </si>
   <si>
     <t>19,78%</t>
   </si>
   <si>
-    <t>18,32%</t>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
   </si>
   <si>
     <t>24,25%</t>
   </si>
   <si>
-    <t>25,84%</t>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
   </si>
   <si>
     <t>22,15%</t>
   </si>
   <si>
-    <t>20,74%</t>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
   </si>
   <si>
     <t>80,22%</t>
   </si>
   <si>
-    <t>81,68%</t>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
   </si>
   <si>
     <t>75,75%</t>
   </si>
   <si>
-    <t>74,16%</t>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
   </si>
   <si>
     <t>77,85%</t>
   </si>
   <si>
-    <t>79,26%</t>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
   </si>
 </sst>
 </file>
@@ -2295,7 +2295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C839A1-76D1-4829-A98D-672CF5FEF47B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5F908B-84A8-414F-B442-42569BCD8AC3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3382,10 +3382,10 @@
         <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3400,13 +3400,13 @@
         <v>469103</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>410</v>
@@ -3415,13 +3415,13 @@
         <v>423155</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>862</v>
@@ -3430,13 +3430,13 @@
         <v>892258</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3492,7 +3492,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3504,13 +3504,13 @@
         <v>180047</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>236</v>
@@ -3519,13 +3519,13 @@
         <v>251742</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>415</v>
@@ -3534,13 +3534,13 @@
         <v>431789</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3555,13 +3555,13 @@
         <v>563748</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>509</v>
@@ -3570,13 +3570,13 @@
         <v>531769</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1066</v>
@@ -3585,13 +3585,13 @@
         <v>1095517</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,13 +3659,13 @@
         <v>659302</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>1022</v>
@@ -3674,13 +3674,13 @@
         <v>1048370</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1683</v>
@@ -3689,13 +3689,13 @@
         <v>1707672</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,13 +3710,13 @@
         <v>2614572</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>2273</v>
@@ -3725,13 +3725,13 @@
         <v>2328815</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>4823</v>
@@ -3740,13 +3740,13 @@
         <v>4943387</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,7 +3802,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3826,7 +3826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70E3A39-DE69-4007-8880-8F2A01BD5C1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E02F3AC-E14E-492D-A51E-955F76D6ED5D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3843,7 +3843,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3948,39 +3948,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,39 +3993,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,39 +4038,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,13 +4087,13 @@
         <v>103721</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>143</v>
@@ -4102,13 +4102,13 @@
         <v>155421</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>233</v>
@@ -4117,13 +4117,13 @@
         <v>259143</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,13 +4138,13 @@
         <v>394868</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>336</v>
@@ -4153,13 +4153,13 @@
         <v>367335</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>712</v>
@@ -4168,13 +4168,13 @@
         <v>762202</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4242,13 +4242,13 @@
         <v>86327</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>135</v>
@@ -4257,13 +4257,13 @@
         <v>143305</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>218</v>
@@ -4272,13 +4272,13 @@
         <v>229633</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,13 +4293,13 @@
         <v>237719</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>182</v>
@@ -4308,13 +4308,13 @@
         <v>197715</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>418</v>
@@ -4323,13 +4323,13 @@
         <v>435433</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,13 +4397,13 @@
         <v>132640</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>195</v>
@@ -4412,13 +4412,13 @@
         <v>209526</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>319</v>
@@ -4427,13 +4427,13 @@
         <v>342167</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4448,13 +4448,13 @@
         <v>535095</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>426</v>
@@ -4463,13 +4463,13 @@
         <v>459609</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>927</v>
@@ -4478,13 +4478,13 @@
         <v>994703</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4552,13 +4552,13 @@
         <v>51992</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H16" s="7">
         <v>89</v>
@@ -4567,13 +4567,13 @@
         <v>91040</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M16" s="7">
         <v>137</v>
@@ -4582,13 +4582,13 @@
         <v>143032</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,13 +4603,13 @@
         <v>159611</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H17" s="7">
         <v>123</v>
@@ -4618,13 +4618,13 @@
         <v>128551</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>270</v>
@@ -4633,13 +4633,13 @@
         <v>288162</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,13 +4707,13 @@
         <v>80835</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H19" s="7">
         <v>105</v>
@@ -4722,13 +4722,13 @@
         <v>110011</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M19" s="7">
         <v>182</v>
@@ -4737,13 +4737,13 @@
         <v>190847</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4758,13 +4758,13 @@
         <v>193146</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H20" s="7">
         <v>163</v>
@@ -4773,13 +4773,13 @@
         <v>169069</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M20" s="7">
         <v>347</v>
@@ -4788,13 +4788,13 @@
         <v>362214</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,13 +4862,13 @@
         <v>168044</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>275</v>
+        <v>19</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H22" s="7">
         <v>203</v>
@@ -4877,13 +4877,13 @@
         <v>223159</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M22" s="7">
         <v>358</v>
@@ -4892,13 +4892,13 @@
         <v>391204</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,13 +4913,13 @@
         <v>493847</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>284</v>
+        <v>28</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H23" s="7">
         <v>433</v>
@@ -4928,13 +4928,13 @@
         <v>470694</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M23" s="7">
         <v>895</v>
@@ -4943,13 +4943,13 @@
         <v>964540</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5005,7 +5005,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5017,13 +5017,13 @@
         <v>156580</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H25" s="7">
         <v>206</v>
@@ -5032,13 +5032,13 @@
         <v>223107</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>296</v>
+        <v>129</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="M25" s="7">
         <v>346</v>
@@ -5047,13 +5047,13 @@
         <v>379687</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>189</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,13 +5068,13 @@
         <v>618438</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H26" s="7">
         <v>549</v>
@@ -5083,13 +5083,13 @@
         <v>598695</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>304</v>
+        <v>136</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="M26" s="7">
         <v>1123</v>
@@ -5098,13 +5098,13 @@
         <v>1217133</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>199</v>
+        <v>303</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,13 +5172,13 @@
         <v>780140</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H28" s="7">
         <v>1076</v>
@@ -5187,13 +5187,13 @@
         <v>1155571</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>154</v>
+        <v>309</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M28" s="7">
         <v>1793</v>
@@ -5202,13 +5202,13 @@
         <v>1935711</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>314</v>
+        <v>116</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5223,13 @@
         <v>2632723</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H29" s="7">
         <v>2212</v>
@@ -5238,28 +5238,28 @@
         <v>2391667</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="M29" s="7">
         <v>4692</v>
       </c>
       <c r="N29" s="7">
-        <v>5024390</v>
+        <v>5024389</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>322</v>
+        <v>124</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5301,7 +5301,7 @@
         <v>6485</v>
       </c>
       <c r="N30" s="7">
-        <v>6960101</v>
+        <v>6960100</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5315,7 +5315,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5339,7 +5339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F078DC-AFB7-4AA7-8889-7627B5D3907D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E26832E-75B6-4F27-9DA6-F53946F69FF7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5356,7 +5356,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5463,13 +5463,13 @@
         <v>68745</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H4" s="7">
         <v>92</v>
@@ -5478,13 +5478,13 @@
         <v>93700</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M4" s="7">
         <v>154</v>
@@ -5493,13 +5493,13 @@
         <v>162445</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>225</v>
+        <v>328</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5514,13 +5514,13 @@
         <v>225016</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H5" s="7">
         <v>185</v>
@@ -5529,13 +5529,13 @@
         <v>195003</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="M5" s="7">
         <v>389</v>
@@ -5544,13 +5544,13 @@
         <v>420019</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>235</v>
+        <v>337</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5618,13 +5618,13 @@
         <v>110667</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>344</v>
+        <v>168</v>
       </c>
       <c r="H7" s="7">
         <v>164</v>
@@ -5633,13 +5633,13 @@
         <v>181763</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="M7" s="7">
         <v>268</v>
@@ -5648,13 +5648,13 @@
         <v>292430</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5669,13 +5669,13 @@
         <v>391908</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>352</v>
+        <v>177</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H8" s="7">
         <v>320</v>
@@ -5684,13 +5684,13 @@
         <v>341321</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="M8" s="7">
         <v>691</v>
@@ -5699,13 +5699,13 @@
         <v>733229</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5773,13 +5773,13 @@
         <v>74367</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H10" s="7">
         <v>103</v>
@@ -5788,13 +5788,13 @@
         <v>104253</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="M10" s="7">
         <v>182</v>
@@ -5803,13 +5803,13 @@
         <v>178619</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,13 +5824,13 @@
         <v>244198</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H11" s="7">
         <v>229</v>
@@ -5839,13 +5839,13 @@
         <v>232056</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M11" s="7">
         <v>485</v>
@@ -5854,13 +5854,13 @@
         <v>476255</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,13 +5928,13 @@
         <v>89490</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H13" s="7">
         <v>124</v>
@@ -5943,13 +5943,13 @@
         <v>136330</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="M13" s="7">
         <v>212</v>
@@ -5958,13 +5958,13 @@
         <v>225820</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5979,13 +5979,13 @@
         <v>280474</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H14" s="7">
         <v>234</v>
@@ -5994,13 +5994,13 @@
         <v>250953</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="M14" s="7">
         <v>500</v>
@@ -6009,13 +6009,13 @@
         <v>531427</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,13 +6083,13 @@
         <v>30232</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="H16" s="7">
         <v>52</v>
@@ -6098,13 +6098,13 @@
         <v>51750</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="M16" s="7">
         <v>83</v>
@@ -6113,13 +6113,13 @@
         <v>81982</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,13 +6134,13 @@
         <v>180989</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="H17" s="7">
         <v>171</v>
@@ -6149,13 +6149,13 @@
         <v>166837</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="M17" s="7">
         <v>352</v>
@@ -6164,13 +6164,13 @@
         <v>347826</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,13 +6238,13 @@
         <v>107806</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="H19" s="7">
         <v>124</v>
@@ -6253,13 +6253,13 @@
         <v>130377</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="M19" s="7">
         <v>229</v>
@@ -6268,13 +6268,13 @@
         <v>238183</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6289,13 +6289,13 @@
         <v>155317</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="H20" s="7">
         <v>139</v>
@@ -6408,13 +6408,13 @@
         <v>186400</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>432</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>433</v>
+        <v>343</v>
       </c>
       <c r="M22" s="7">
         <v>302</v>
@@ -6423,13 +6423,13 @@
         <v>336428</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,13 +6444,13 @@
         <v>506530</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="H23" s="7">
         <v>477</v>
@@ -6459,13 +6459,13 @@
         <v>504894</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>440</v>
+        <v>336</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>441</v>
+        <v>352</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="M23" s="7">
         <v>924</v>
@@ -6474,13 +6474,13 @@
         <v>1011424</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6536,7 +6536,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6548,13 +6548,13 @@
         <v>224268</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>91</v>
+        <v>442</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>447</v>
+        <v>308</v>
       </c>
       <c r="H25" s="7">
         <v>249</v>
@@ -6563,13 +6563,13 @@
         <v>279748</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="M25" s="7">
         <v>463</v>
@@ -6578,13 +6578,13 @@
         <v>504016</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>205</v>
+        <v>447</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6599,13 +6599,13 @@
         <v>554315</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>99</v>
+        <v>450</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>453</v>
+        <v>316</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H26" s="7">
         <v>506</v>
@@ -6614,13 +6614,13 @@
         <v>546419</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="M26" s="7">
         <v>1042</v>
@@ -6629,13 +6629,13 @@
         <v>1100734</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>213</v>
+        <v>455</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6703,13 +6703,13 @@
         <v>855602</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>461</v>
       </c>
       <c r="H28" s="7">
         <v>1077</v>
@@ -6718,13 +6718,13 @@
         <v>1164320</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="M28" s="7">
         <v>1893</v>
@@ -6733,13 +6733,13 @@
         <v>2019921</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>379</v>
+        <v>463</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6760,7 +6760,7 @@
         <v>467</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>307</v>
+        <v>468</v>
       </c>
       <c r="H29" s="7">
         <v>2261</v>
@@ -6769,13 +6769,13 @@
         <v>2380222</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>470</v>
+        <v>142</v>
       </c>
       <c r="M29" s="7">
         <v>4676</v>
@@ -6784,13 +6784,13 @@
         <v>4918971</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>386</v>
+        <v>471</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>45</v>
+        <v>472</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6846,7 +6846,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6870,7 +6870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E126607-227C-4AFF-919A-BF2A1B0E561F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03D99FB-6B65-4135-BF79-91D67AAA536E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6887,7 +6887,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6997,10 +6997,10 @@
         <v>428</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="H4" s="7">
         <v>136</v>
@@ -7009,13 +7009,13 @@
         <v>70883</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>475</v>
+        <v>279</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M4" s="7">
         <v>208</v>
@@ -7024,13 +7024,13 @@
         <v>130364</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7045,13 +7045,13 @@
         <v>200817</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H5" s="7">
         <v>400</v>
@@ -7060,7 +7060,7 @@
         <v>199553</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>483</v>
+        <v>288</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>484</v>
@@ -7185,7 +7185,7 @@
         <v>496</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>77</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7200,13 +7200,13 @@
         <v>433351</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H8" s="7">
         <v>582</v>
@@ -7215,13 +7215,13 @@
         <v>450504</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M8" s="7">
         <v>893</v>
@@ -7230,13 +7230,13 @@
         <v>883855</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>87</v>
+        <v>505</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7304,13 +7304,13 @@
         <v>65059</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="H10" s="7">
         <v>120</v>
@@ -7319,13 +7319,13 @@
         <v>80913</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="M10" s="7">
         <v>196</v>
@@ -7334,13 +7334,13 @@
         <v>145972</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>512</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>514</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7355,13 +7355,13 @@
         <v>257181</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="H11" s="7">
         <v>416</v>
@@ -7370,13 +7370,13 @@
         <v>292371</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="M11" s="7">
         <v>700</v>
@@ -7385,10 +7385,10 @@
         <v>549552</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>522</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>520</v>
@@ -7459,13 +7459,13 @@
         <v>73675</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="H13" s="7">
         <v>166</v>
@@ -7474,13 +7474,13 @@
         <v>123823</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="M13" s="7">
         <v>241</v>
@@ -7489,13 +7489,13 @@
         <v>197499</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>527</v>
+        <v>305</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7510,13 +7510,13 @@
         <v>248565</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H14" s="7">
         <v>432</v>
@@ -7525,13 +7525,13 @@
         <v>304306</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M14" s="7">
         <v>649</v>
@@ -7540,13 +7540,13 @@
         <v>552870</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>536</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7802,10 +7802,10 @@
         <v>561</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7820,13 +7820,13 @@
         <v>222529</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>565</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>566</v>
       </c>
       <c r="H20" s="7">
         <v>348</v>
@@ -7835,13 +7835,13 @@
         <v>213071</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>568</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>569</v>
       </c>
       <c r="M20" s="7">
         <v>640</v>
@@ -7850,13 +7850,13 @@
         <v>435600</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>571</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>572</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7924,13 +7924,13 @@
         <v>144770</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>575</v>
       </c>
       <c r="H22" s="7">
         <v>313</v>
@@ -7939,13 +7939,13 @@
         <v>211388</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="M22" s="7">
         <v>455</v>
@@ -7954,13 +7954,13 @@
         <v>356158</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>579</v>
+        <v>357</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7975,13 +7975,13 @@
         <v>482984</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="H23" s="7">
         <v>646</v>
@@ -7990,13 +7990,13 @@
         <v>591670</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="M23" s="7">
         <v>1103</v>
@@ -8005,13 +8005,13 @@
         <v>1074654</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>588</v>
+        <v>367</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8067,7 +8067,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8079,13 +8079,13 @@
         <v>166280</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="H25" s="7">
         <v>304</v>
@@ -8094,13 +8094,13 @@
         <v>237810</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>436</v>
+        <v>588</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>592</v>
+        <v>256</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="M25" s="7">
         <v>475</v>
@@ -8109,13 +8109,13 @@
         <v>404090</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>595</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8130,13 +8130,13 @@
         <v>692443</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="H26" s="7">
         <v>757</v>
@@ -8145,13 +8145,13 @@
         <v>630465</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>444</v>
+        <v>594</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>600</v>
+        <v>266</v>
       </c>
       <c r="M26" s="7">
         <v>1347</v>
@@ -8160,13 +8160,13 @@
         <v>1322908</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>601</v>
+        <v>65</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8234,13 +8234,13 @@
         <v>669323</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>310</v>
+        <v>599</v>
       </c>
       <c r="H28" s="7">
         <v>1351</v>
@@ -8249,13 +8249,13 @@
         <v>922655</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>494</v>
+        <v>601</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="M28" s="7">
         <v>2063</v>
@@ -8264,13 +8264,13 @@
         <v>1591977</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>223</v>
+        <v>605</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8285,13 +8285,13 @@
         <v>2714311</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>319</v>
+        <v>607</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="H29" s="7">
         <v>4006</v>
@@ -8300,13 +8300,13 @@
         <v>2881677</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>611</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="M29" s="7">
         <v>6668</v>
@@ -8315,10 +8315,10 @@
         <v>5595989</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>613</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>614</v>
@@ -8377,7 +8377,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P17A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P17A-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1D99CE5-C6AD-4C0D-94E9-4EDDE0D9AB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C103776B-F817-487D-B6C3-5310EA5ECE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{407A9288-28B8-4486-8EDE-5FAB9776EED4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DB9A6DBC-A52C-470D-912E-4DEEF6699F57}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="642">
   <si>
     <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -587,7 +587,58 @@
     <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2012 (Tasa respuesta: 99,66%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
   </si>
   <si>
     <t>20,8%</t>
@@ -698,58 +749,52 @@
     <t>69,05%</t>
   </si>
   <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
   </si>
   <si>
     <t>24,57%</t>
@@ -1031,9 +1076,6 @@
     <t>23,91%</t>
   </si>
   <si>
-    <t>31,57%</t>
-  </si>
-  <si>
     <t>76,6%</t>
   </si>
   <si>
@@ -1055,9 +1097,6 @@
     <t>72,11%</t>
   </si>
   <si>
-    <t>68,43%</t>
-  </si>
-  <si>
     <t>76,09%</t>
   </si>
   <si>
@@ -1466,424 +1505,466 @@
     <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
   <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
   </si>
   <si>
     <t>18,67%</t>
   </si>
   <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
   </si>
   <si>
     <t>81,33%</t>
   </si>
   <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
   </si>
   <si>
     <t>27,39%</t>
   </si>
   <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
   </si>
   <si>
     <t>72,61%</t>
   </si>
   <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
   </si>
 </sst>
 </file>
@@ -2295,7 +2376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5F908B-84A8-414F-B442-42569BCD8AC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F6B4C4-DC5E-4C7D-86B5-7EC3CD4214B8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3826,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E02F3AC-E14E-492D-A51E-955F76D6ED5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B687A002-EB27-4CD8-8B19-759C3467E991}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3944,43 +4025,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>59</v>
+      </c>
+      <c r="D4" s="7">
+        <v>61764</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>86</v>
+      </c>
+      <c r="I4" s="7">
+        <v>95701</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>145</v>
+      </c>
+      <c r="N4" s="7">
+        <v>157465</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,43 +4076,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>223</v>
+      </c>
+      <c r="D5" s="7">
+        <v>232974</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>170</v>
+      </c>
+      <c r="I5" s="7">
+        <v>191544</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>393</v>
+      </c>
+      <c r="N5" s="7">
+        <v>424518</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,43 +4127,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,13 +4186,13 @@
         <v>103721</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="H7" s="7">
         <v>143</v>
@@ -4102,13 +4201,13 @@
         <v>155421</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="M7" s="7">
         <v>233</v>
@@ -4117,13 +4216,13 @@
         <v>259143</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,13 +4237,13 @@
         <v>394868</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="H8" s="7">
         <v>336</v>
@@ -4153,13 +4252,13 @@
         <v>367335</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="M8" s="7">
         <v>712</v>
@@ -4168,13 +4267,13 @@
         <v>762202</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4242,13 +4341,13 @@
         <v>86327</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="H10" s="7">
         <v>135</v>
@@ -4257,13 +4356,13 @@
         <v>143305</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="M10" s="7">
         <v>218</v>
@@ -4272,13 +4371,13 @@
         <v>229633</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,13 +4392,13 @@
         <v>237719</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="H11" s="7">
         <v>182</v>
@@ -4308,13 +4407,13 @@
         <v>197715</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="M11" s="7">
         <v>418</v>
@@ -4323,13 +4422,13 @@
         <v>435433</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,49 +4490,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="D13" s="7">
-        <v>132640</v>
+        <v>70876</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="H13" s="7">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="I13" s="7">
-        <v>209526</v>
+        <v>113826</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="M13" s="7">
-        <v>319</v>
+        <v>174</v>
       </c>
       <c r="N13" s="7">
-        <v>342167</v>
+        <v>184702</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4442,49 +4541,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>501</v>
+        <v>278</v>
       </c>
       <c r="D14" s="7">
-        <v>535095</v>
+        <v>302121</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="H14" s="7">
-        <v>426</v>
+        <v>256</v>
       </c>
       <c r="I14" s="7">
-        <v>459609</v>
+        <v>268064</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="M14" s="7">
-        <v>927</v>
+        <v>534</v>
       </c>
       <c r="N14" s="7">
-        <v>994703</v>
+        <v>570185</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,10 +4592,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>625</v>
+        <v>343</v>
       </c>
       <c r="D15" s="7">
-        <v>667735</v>
+        <v>372997</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4508,10 +4607,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>621</v>
+        <v>365</v>
       </c>
       <c r="I15" s="7">
-        <v>669135</v>
+        <v>381890</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4523,10 +4622,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1246</v>
+        <v>708</v>
       </c>
       <c r="N15" s="7">
-        <v>1336870</v>
+        <v>754887</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4552,13 +4651,13 @@
         <v>51992</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="H16" s="7">
         <v>89</v>
@@ -4567,13 +4666,13 @@
         <v>91040</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="M16" s="7">
         <v>137</v>
@@ -4582,13 +4681,13 @@
         <v>143032</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,13 +4702,13 @@
         <v>159611</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="H17" s="7">
         <v>123</v>
@@ -4618,13 +4717,13 @@
         <v>128551</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="M17" s="7">
         <v>270</v>
@@ -4633,13 +4732,13 @@
         <v>288162</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,13 +4806,13 @@
         <v>80835</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="H19" s="7">
         <v>105</v>
@@ -4722,13 +4821,13 @@
         <v>110011</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="M19" s="7">
         <v>182</v>
@@ -4737,13 +4836,13 @@
         <v>190847</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4758,13 +4857,13 @@
         <v>193146</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="H20" s="7">
         <v>163</v>
@@ -4773,13 +4872,13 @@
         <v>169069</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="M20" s="7">
         <v>347</v>
@@ -4788,13 +4887,13 @@
         <v>362214</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4865,10 +4964,10 @@
         <v>19</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="H22" s="7">
         <v>203</v>
@@ -4877,13 +4976,13 @@
         <v>223159</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="M22" s="7">
         <v>358</v>
@@ -4892,13 +4991,13 @@
         <v>391204</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4916,10 +5015,10 @@
         <v>28</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="H23" s="7">
         <v>433</v>
@@ -4928,13 +5027,13 @@
         <v>470694</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="M23" s="7">
         <v>895</v>
@@ -4943,13 +5042,13 @@
         <v>964540</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,13 +5116,13 @@
         <v>156580</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="H25" s="7">
         <v>206</v>
@@ -5035,10 +5134,10 @@
         <v>129</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="M25" s="7">
         <v>346</v>
@@ -5047,13 +5146,13 @@
         <v>379687</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,13 +5167,13 @@
         <v>618438</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="H26" s="7">
         <v>549</v>
@@ -5086,10 +5185,10 @@
         <v>136</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="M26" s="7">
         <v>1123</v>
@@ -5098,13 +5197,13 @@
         <v>1217133</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,13 +5271,13 @@
         <v>780140</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="H28" s="7">
         <v>1076</v>
@@ -5187,13 +5286,13 @@
         <v>1155571</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="M28" s="7">
         <v>1793</v>
@@ -5205,10 +5304,10 @@
         <v>116</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5322,13 @@
         <v>2632723</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="H29" s="7">
         <v>2212</v>
@@ -5238,28 +5337,28 @@
         <v>2391667</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="M29" s="7">
         <v>4692</v>
       </c>
       <c r="N29" s="7">
-        <v>5024389</v>
+        <v>5024390</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>124</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5301,7 +5400,7 @@
         <v>6485</v>
       </c>
       <c r="N30" s="7">
-        <v>6960100</v>
+        <v>6960101</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5339,7 +5438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E26832E-75B6-4F27-9DA6-F53946F69FF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADD863C-6879-4F8B-85F3-FB557A5E774F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5356,7 +5455,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5463,13 +5562,13 @@
         <v>68745</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="H4" s="7">
         <v>92</v>
@@ -5478,13 +5577,13 @@
         <v>93700</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="M4" s="7">
         <v>154</v>
@@ -5493,13 +5592,13 @@
         <v>162445</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>330</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5514,13 +5613,13 @@
         <v>225016</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="H5" s="7">
         <v>185</v>
@@ -5529,13 +5628,13 @@
         <v>195003</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="M5" s="7">
         <v>389</v>
@@ -5544,13 +5643,13 @@
         <v>420019</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>338</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5618,10 +5717,10 @@
         <v>110667</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>168</v>
@@ -5633,13 +5732,13 @@
         <v>181763</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="M7" s="7">
         <v>268</v>
@@ -5648,13 +5747,13 @@
         <v>292430</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5669,13 +5768,13 @@
         <v>391908</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>177</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="H8" s="7">
         <v>320</v>
@@ -5684,13 +5783,13 @@
         <v>341321</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="M8" s="7">
         <v>691</v>
@@ -5699,13 +5798,13 @@
         <v>733229</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5773,13 +5872,13 @@
         <v>74367</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="H10" s="7">
         <v>103</v>
@@ -5788,13 +5887,13 @@
         <v>104253</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="M10" s="7">
         <v>182</v>
@@ -5803,13 +5902,13 @@
         <v>178619</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,13 +5923,13 @@
         <v>244198</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="H11" s="7">
         <v>229</v>
@@ -5839,13 +5938,13 @@
         <v>232056</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="M11" s="7">
         <v>485</v>
@@ -5854,13 +5953,13 @@
         <v>476255</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,13 +6027,13 @@
         <v>89490</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="H13" s="7">
         <v>124</v>
@@ -5943,13 +6042,13 @@
         <v>136330</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="M13" s="7">
         <v>212</v>
@@ -5958,13 +6057,13 @@
         <v>225820</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5979,13 +6078,13 @@
         <v>280474</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="H14" s="7">
         <v>234</v>
@@ -5994,13 +6093,13 @@
         <v>250953</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="M14" s="7">
         <v>500</v>
@@ -6009,13 +6108,13 @@
         <v>531427</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,13 +6182,13 @@
         <v>30232</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="H16" s="7">
         <v>52</v>
@@ -6098,13 +6197,13 @@
         <v>51750</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="M16" s="7">
         <v>83</v>
@@ -6113,13 +6212,13 @@
         <v>81982</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,13 +6233,13 @@
         <v>180989</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="H17" s="7">
         <v>171</v>
@@ -6149,13 +6248,13 @@
         <v>166837</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="M17" s="7">
         <v>352</v>
@@ -6164,13 +6263,13 @@
         <v>347826</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,13 +6337,13 @@
         <v>107806</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="H19" s="7">
         <v>124</v>
@@ -6253,13 +6352,13 @@
         <v>130377</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="M19" s="7">
         <v>229</v>
@@ -6268,13 +6367,13 @@
         <v>238183</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6289,13 +6388,13 @@
         <v>155317</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="H20" s="7">
         <v>139</v>
@@ -6304,13 +6403,13 @@
         <v>142738</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="M20" s="7">
         <v>293</v>
@@ -6319,13 +6418,13 @@
         <v>298055</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,13 +6492,13 @@
         <v>150028</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="H22" s="7">
         <v>169</v>
@@ -6408,13 +6507,13 @@
         <v>186400</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="M22" s="7">
         <v>302</v>
@@ -6423,13 +6522,13 @@
         <v>336428</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,13 +6543,13 @@
         <v>506530</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="H23" s="7">
         <v>477</v>
@@ -6459,13 +6558,13 @@
         <v>504894</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="M23" s="7">
         <v>924</v>
@@ -6474,13 +6573,13 @@
         <v>1011424</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6548,13 +6647,13 @@
         <v>224268</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="H25" s="7">
         <v>249</v>
@@ -6563,13 +6662,13 @@
         <v>279748</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="M25" s="7">
         <v>463</v>
@@ -6578,13 +6677,13 @@
         <v>504016</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6599,13 +6698,13 @@
         <v>554315</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="H26" s="7">
         <v>506</v>
@@ -6614,13 +6713,13 @@
         <v>546419</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="M26" s="7">
         <v>1042</v>
@@ -6629,13 +6728,13 @@
         <v>1100734</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6703,13 +6802,13 @@
         <v>855602</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="H28" s="7">
         <v>1077</v>
@@ -6718,13 +6817,13 @@
         <v>1164320</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>134</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="M28" s="7">
         <v>1893</v>
@@ -6733,13 +6832,13 @@
         <v>2019921</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,13 +6853,13 @@
         <v>2538748</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="H29" s="7">
         <v>2261</v>
@@ -6769,10 +6868,10 @@
         <v>2380222</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>142</v>
@@ -6784,13 +6883,13 @@
         <v>4918971</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6870,7 +6969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03D99FB-6B65-4135-BF79-91D67AAA536E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB752B36-889F-40CC-8BDD-04E142436C12}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6887,7 +6986,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6991,46 +7090,46 @@
         <v>72</v>
       </c>
       <c r="D4" s="7">
-        <v>59481</v>
+        <v>70196</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>428</v>
+        <v>488</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="H4" s="7">
         <v>136</v>
       </c>
       <c r="I4" s="7">
-        <v>70883</v>
+        <v>75257</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>279</v>
+        <v>491</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="M4" s="7">
         <v>208</v>
       </c>
       <c r="N4" s="7">
-        <v>130364</v>
+        <v>145453</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7042,46 +7141,46 @@
         <v>259</v>
       </c>
       <c r="D5" s="7">
-        <v>200817</v>
+        <v>241247</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>435</v>
+        <v>497</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="H5" s="7">
         <v>400</v>
       </c>
       <c r="I5" s="7">
-        <v>199553</v>
+        <v>213389</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>288</v>
+        <v>500</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="M5" s="7">
         <v>659</v>
       </c>
       <c r="N5" s="7">
-        <v>400369</v>
+        <v>454636</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7093,7 +7192,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7108,7 +7207,7 @@
         <v>536</v>
       </c>
       <c r="I6" s="7">
-        <v>270436</v>
+        <v>288646</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7123,7 +7222,7 @@
         <v>867</v>
       </c>
       <c r="N6" s="7">
-        <v>530733</v>
+        <v>600089</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7146,46 +7245,46 @@
         <v>70</v>
       </c>
       <c r="D7" s="7">
-        <v>85058</v>
+        <v>82237</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>491</v>
+        <v>162</v>
       </c>
       <c r="H7" s="7">
         <v>135</v>
       </c>
       <c r="I7" s="7">
-        <v>104062</v>
+        <v>96653</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="M7" s="7">
         <v>205</v>
       </c>
       <c r="N7" s="7">
-        <v>189120</v>
+        <v>178890</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7197,46 +7296,46 @@
         <v>311</v>
       </c>
       <c r="D8" s="7">
-        <v>433351</v>
+        <v>435336</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>499</v>
+        <v>171</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="H8" s="7">
         <v>582</v>
       </c>
       <c r="I8" s="7">
-        <v>450504</v>
+        <v>418316</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="M8" s="7">
         <v>893</v>
       </c>
       <c r="N8" s="7">
-        <v>883855</v>
+        <v>853652</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7248,7 +7347,7 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>518409</v>
+        <v>517573</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7263,7 +7362,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7278,7 +7377,7 @@
         <v>1098</v>
       </c>
       <c r="N9" s="7">
-        <v>1072975</v>
+        <v>1032542</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7301,46 +7400,46 @@
         <v>76</v>
       </c>
       <c r="D10" s="7">
-        <v>65059</v>
+        <v>63306</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="H10" s="7">
         <v>120</v>
       </c>
       <c r="I10" s="7">
-        <v>80913</v>
+        <v>75780</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="M10" s="7">
         <v>196</v>
       </c>
       <c r="N10" s="7">
-        <v>145972</v>
+        <v>139086</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7352,46 +7451,46 @@
         <v>284</v>
       </c>
       <c r="D11" s="7">
-        <v>257181</v>
+        <v>252744</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="H11" s="7">
         <v>416</v>
       </c>
       <c r="I11" s="7">
-        <v>292371</v>
+        <v>273348</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>519</v>
+        <v>535</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="M11" s="7">
         <v>700</v>
       </c>
       <c r="N11" s="7">
-        <v>549552</v>
+        <v>526092</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>522</v>
+        <v>538</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7403,7 +7502,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7418,7 +7517,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7433,7 +7532,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7456,46 +7555,46 @@
         <v>75</v>
       </c>
       <c r="D13" s="7">
-        <v>73675</v>
+        <v>70264</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>305</v>
+        <v>540</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="H13" s="7">
         <v>166</v>
       </c>
       <c r="I13" s="7">
-        <v>123823</v>
+        <v>169846</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
       <c r="M13" s="7">
         <v>241</v>
       </c>
       <c r="N13" s="7">
-        <v>197499</v>
+        <v>240110</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>305</v>
+        <v>547</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>529</v>
+        <v>548</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7507,46 +7606,46 @@
         <v>217</v>
       </c>
       <c r="D14" s="7">
-        <v>248565</v>
+        <v>242293</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>313</v>
+        <v>549</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>530</v>
+        <v>550</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>531</v>
+        <v>551</v>
       </c>
       <c r="H14" s="7">
         <v>432</v>
       </c>
       <c r="I14" s="7">
-        <v>304306</v>
+        <v>305473</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>532</v>
+        <v>552</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>533</v>
+        <v>553</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>534</v>
+        <v>554</v>
       </c>
       <c r="M14" s="7">
         <v>649</v>
       </c>
       <c r="N14" s="7">
-        <v>552870</v>
+        <v>547765</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>535</v>
+        <v>555</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>536</v>
+        <v>556</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>313</v>
+        <v>557</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7558,7 +7657,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7573,7 +7672,7 @@
         <v>598</v>
       </c>
       <c r="I15" s="7">
-        <v>428129</v>
+        <v>475319</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7588,7 +7687,7 @@
         <v>890</v>
       </c>
       <c r="N15" s="7">
-        <v>750369</v>
+        <v>787875</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7611,46 +7710,46 @@
         <v>27</v>
       </c>
       <c r="D16" s="7">
-        <v>20305</v>
+        <v>18243</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>537</v>
+        <v>558</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>538</v>
+        <v>559</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>539</v>
+        <v>560</v>
       </c>
       <c r="H16" s="7">
         <v>65</v>
       </c>
       <c r="I16" s="7">
-        <v>31224</v>
+        <v>28276</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
       <c r="M16" s="7">
         <v>92</v>
       </c>
       <c r="N16" s="7">
-        <v>51529</v>
+        <v>46520</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>544</v>
+        <v>565</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>545</v>
+        <v>566</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7662,46 +7761,46 @@
         <v>252</v>
       </c>
       <c r="D17" s="7">
-        <v>176443</v>
+        <v>160499</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>547</v>
+        <v>568</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>548</v>
+        <v>569</v>
       </c>
       <c r="H17" s="7">
         <v>425</v>
       </c>
       <c r="I17" s="7">
-        <v>199738</v>
+        <v>179527</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>549</v>
+        <v>570</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>550</v>
+        <v>571</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>551</v>
+        <v>572</v>
       </c>
       <c r="M17" s="7">
         <v>677</v>
       </c>
       <c r="N17" s="7">
-        <v>376181</v>
+        <v>340025</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>552</v>
+        <v>573</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>553</v>
+        <v>574</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>554</v>
+        <v>575</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7713,7 +7812,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7728,7 +7827,7 @@
         <v>490</v>
       </c>
       <c r="I18" s="7">
-        <v>230962</v>
+        <v>207803</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7743,7 +7842,7 @@
         <v>769</v>
       </c>
       <c r="N18" s="7">
-        <v>427710</v>
+        <v>386545</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7766,46 +7865,46 @@
         <v>79</v>
       </c>
       <c r="D19" s="7">
-        <v>54694</v>
+        <v>52886</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>555</v>
+        <v>576</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>556</v>
+        <v>577</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>557</v>
+        <v>578</v>
       </c>
       <c r="H19" s="7">
         <v>112</v>
       </c>
       <c r="I19" s="7">
-        <v>62551</v>
+        <v>58387</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>558</v>
+        <v>579</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>559</v>
+        <v>580</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>560</v>
+        <v>581</v>
       </c>
       <c r="M19" s="7">
         <v>191</v>
       </c>
       <c r="N19" s="7">
-        <v>117245</v>
+        <v>111273</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>561</v>
+        <v>582</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>18</v>
+        <v>409</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>562</v>
+        <v>583</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7817,46 +7916,46 @@
         <v>292</v>
       </c>
       <c r="D20" s="7">
-        <v>222529</v>
+        <v>216750</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>563</v>
+        <v>584</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>564</v>
+        <v>585</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>565</v>
+        <v>586</v>
       </c>
       <c r="H20" s="7">
         <v>348</v>
       </c>
       <c r="I20" s="7">
-        <v>213071</v>
+        <v>198669</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>566</v>
+        <v>587</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>567</v>
+        <v>588</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>568</v>
+        <v>589</v>
       </c>
       <c r="M20" s="7">
         <v>640</v>
       </c>
       <c r="N20" s="7">
-        <v>435600</v>
+        <v>415419</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>569</v>
+        <v>590</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>570</v>
+        <v>591</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>29</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7868,7 +7967,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7883,7 +7982,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7898,7 +7997,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7921,46 +8020,46 @@
         <v>142</v>
       </c>
       <c r="D22" s="7">
-        <v>144770</v>
+        <v>142546</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>571</v>
+        <v>592</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>572</v>
+        <v>593</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>573</v>
+        <v>594</v>
       </c>
       <c r="H22" s="7">
         <v>313</v>
       </c>
       <c r="I22" s="7">
-        <v>211388</v>
+        <v>195802</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>528</v>
+        <v>595</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>574</v>
+        <v>596</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>575</v>
+        <v>597</v>
       </c>
       <c r="M22" s="7">
         <v>455</v>
       </c>
       <c r="N22" s="7">
-        <v>356158</v>
+        <v>338348</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>576</v>
+        <v>598</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>357</v>
+        <v>599</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>577</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7972,46 +8071,46 @@
         <v>457</v>
       </c>
       <c r="D23" s="7">
-        <v>482984</v>
+        <v>481733</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>578</v>
+        <v>601</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>579</v>
+        <v>602</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>580</v>
+        <v>603</v>
       </c>
       <c r="H23" s="7">
         <v>646</v>
       </c>
       <c r="I23" s="7">
-        <v>591670</v>
+        <v>652339</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>535</v>
+        <v>604</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>582</v>
+        <v>606</v>
       </c>
       <c r="M23" s="7">
         <v>1103</v>
       </c>
       <c r="N23" s="7">
-        <v>1074654</v>
+        <v>1134072</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>584</v>
+        <v>608</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>367</v>
+        <v>609</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8023,7 +8122,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8038,7 +8137,7 @@
         <v>959</v>
       </c>
       <c r="I24" s="7">
-        <v>803058</v>
+        <v>848141</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8053,7 +8152,7 @@
         <v>1558</v>
       </c>
       <c r="N24" s="7">
-        <v>1430812</v>
+        <v>1472420</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8076,46 +8175,46 @@
         <v>171</v>
       </c>
       <c r="D25" s="7">
-        <v>166280</v>
+        <v>141677</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>585</v>
+        <v>610</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>587</v>
+        <v>612</v>
       </c>
       <c r="H25" s="7">
         <v>304</v>
       </c>
       <c r="I25" s="7">
-        <v>237810</v>
+        <v>196561</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>588</v>
+        <v>613</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>256</v>
+        <v>614</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>589</v>
+        <v>615</v>
       </c>
       <c r="M25" s="7">
         <v>475</v>
       </c>
       <c r="N25" s="7">
-        <v>404090</v>
+        <v>338238</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>322</v>
+        <v>616</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>590</v>
+        <v>617</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>55</v>
+        <v>618</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8127,46 +8226,46 @@
         <v>590</v>
       </c>
       <c r="D26" s="7">
-        <v>692443</v>
+        <v>786423</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>591</v>
+        <v>619</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>592</v>
+        <v>620</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>593</v>
+        <v>621</v>
       </c>
       <c r="H26" s="7">
         <v>757</v>
       </c>
       <c r="I26" s="7">
-        <v>630465</v>
+        <v>521011</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>594</v>
+        <v>622</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>595</v>
+        <v>623</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>266</v>
+        <v>624</v>
       </c>
       <c r="M26" s="7">
         <v>1347</v>
       </c>
       <c r="N26" s="7">
-        <v>1322908</v>
+        <v>1307433</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>331</v>
+        <v>625</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>65</v>
+        <v>626</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>596</v>
+        <v>627</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8178,7 +8277,7 @@
         <v>761</v>
       </c>
       <c r="D27" s="7">
-        <v>858723</v>
+        <v>928100</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8193,7 +8292,7 @@
         <v>1061</v>
       </c>
       <c r="I27" s="7">
-        <v>868275</v>
+        <v>717572</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8208,7 +8307,7 @@
         <v>1822</v>
       </c>
       <c r="N27" s="7">
-        <v>1726998</v>
+        <v>1645671</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8231,46 +8330,46 @@
         <v>712</v>
       </c>
       <c r="D28" s="7">
-        <v>669323</v>
+        <v>641355</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>597</v>
+        <v>628</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>598</v>
+        <v>629</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>599</v>
+        <v>630</v>
       </c>
       <c r="H28" s="7">
         <v>1351</v>
       </c>
       <c r="I28" s="7">
-        <v>922655</v>
+        <v>896562</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>600</v>
+        <v>631</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>601</v>
+        <v>632</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>602</v>
+        <v>208</v>
       </c>
       <c r="M28" s="7">
         <v>2063</v>
       </c>
       <c r="N28" s="7">
-        <v>1591977</v>
+        <v>1537917</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>603</v>
+        <v>633</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>604</v>
+        <v>634</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>605</v>
+        <v>344</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8282,46 +8381,46 @@
         <v>2662</v>
       </c>
       <c r="D29" s="7">
-        <v>2714311</v>
+        <v>2817024</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>606</v>
+        <v>635</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>607</v>
+        <v>636</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>608</v>
+        <v>637</v>
       </c>
       <c r="H29" s="7">
         <v>4006</v>
       </c>
       <c r="I29" s="7">
-        <v>2881677</v>
+        <v>2762071</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>609</v>
+        <v>638</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>610</v>
+        <v>216</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
       <c r="M29" s="7">
         <v>6668</v>
       </c>
       <c r="N29" s="7">
-        <v>5595989</v>
+        <v>5579095</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>613</v>
+        <v>352</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>614</v>
+        <v>641</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8333,7 +8432,7 @@
         <v>3374</v>
       </c>
       <c r="D30" s="7">
-        <v>3383634</v>
+        <v>3458379</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8348,7 +8447,7 @@
         <v>5357</v>
       </c>
       <c r="I30" s="7">
-        <v>3804332</v>
+        <v>3658633</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8363,7 +8462,7 @@
         <v>8731</v>
       </c>
       <c r="N30" s="7">
-        <v>7187966</v>
+        <v>7117012</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
